--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2488.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2488.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.362059549515506</v>
+        <v>1.479687929153442</v>
       </c>
       <c r="B1">
-        <v>3.595550103434946</v>
+        <v>1.303015947341919</v>
       </c>
       <c r="C1">
-        <v>4.990435227858567</v>
+        <v>4.506392478942871</v>
       </c>
       <c r="D1">
-        <v>3.311340416193197</v>
+        <v>2.119007110595703</v>
       </c>
       <c r="E1">
-        <v>2.075802509875889</v>
+        <v>0.7136600017547607</v>
       </c>
     </row>
   </sheetData>
